--- a/result/with_base/124/arousal/s13_1.xlsx
+++ b/result/with_base/124/arousal/s13_1.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9743303656578064</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.8448660671710968</v>
       </c>
       <c r="C2" t="n">
-        <v>41681.794921875</v>
+        <v>11307.873046875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8661363612521779</v>
+        <v>0.8065257352941176</v>
       </c>
       <c r="E2" t="n">
-        <v>41686.25071022727</v>
+        <v>11309.759765625</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.89453125</v>
       </c>
       <c r="C3" t="n">
-        <v>40888.203125</v>
+        <v>11007.62158203125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8997727307406339</v>
+        <v>0.8697478981579051</v>
       </c>
       <c r="E3" t="n">
-        <v>40888.25390625</v>
+        <v>11008.16906020221</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9199999868869781</v>
+        <v>0.9229910671710968</v>
       </c>
       <c r="C4" t="n">
-        <v>40108.8671875</v>
+        <v>10711.2763671875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8979545398191973</v>
+        <v>0.8952862409984365</v>
       </c>
       <c r="E4" t="n">
-        <v>40107.59659090909</v>
+        <v>10711.56853170956</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9358258843421936</v>
       </c>
       <c r="C5" t="n">
-        <v>39333.44921875</v>
+        <v>10418.41162109375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9464772668751803</v>
+        <v>0.9243697489009184</v>
       </c>
       <c r="E5" t="n">
-        <v>39332.92507102273</v>
+        <v>10418.24856387868</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C6" t="n">
-        <v>38573.623046875</v>
+        <v>10131.7060546875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9570454521612688</v>
+        <v>0.9292279411764706</v>
       </c>
       <c r="E6" t="n">
-        <v>38572.90696022727</v>
+        <v>10131.6748046875</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C7" t="n">
-        <v>37827.470703125</v>
+        <v>9850.9140625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9569318186153065</v>
+        <v>0.9289653371362125</v>
       </c>
       <c r="E7" t="n">
-        <v>37826.30078125</v>
+        <v>9850.896426930147</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.953125</v>
       </c>
       <c r="C8" t="n">
-        <v>37091.966796875</v>
+        <v>9576.05419921875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9729545495726846</v>
+        <v>0.949776786215165</v>
       </c>
       <c r="E8" t="n">
-        <v>37091.04119318182</v>
+        <v>9575.831744025736</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.95703125</v>
       </c>
       <c r="C9" t="n">
-        <v>36370.599609375</v>
+        <v>9307.46533203125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9710227251052856</v>
+        <v>0.965270484195036</v>
       </c>
       <c r="E9" t="n">
-        <v>36369.59801136364</v>
+        <v>9307.096852022059</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9486607015132904</v>
       </c>
       <c r="C10" t="n">
-        <v>35661.82421875</v>
+        <v>9045.45556640625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9715909036723051</v>
+        <v>0.9678965351160835</v>
       </c>
       <c r="E10" t="n">
-        <v>35661.09801136364</v>
+        <v>9045.030388327206</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C11" t="n">
-        <v>34966.220703125</v>
+        <v>8789.8291015625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9776136495850303</v>
+        <v>0.9545693292337305</v>
       </c>
       <c r="E11" t="n">
-        <v>34965.01740056818</v>
+        <v>8789.491498161764</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9614955484867096</v>
       </c>
       <c r="C12" t="n">
-        <v>34283.275390625</v>
+        <v>8540.20361328125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9817045493559404</v>
+        <v>0.9654674354721519</v>
       </c>
       <c r="E12" t="n">
-        <v>34281.88707386364</v>
+        <v>8539.799460018383</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.953125</v>
       </c>
       <c r="C13" t="n">
-        <v>33611.953125</v>
+        <v>8296.9765625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9856818318367004</v>
+        <v>0.9555540961377761</v>
       </c>
       <c r="E13" t="n">
-        <v>33611.08132102273</v>
+        <v>8296.603975183823</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.94921875</v>
       </c>
       <c r="C14" t="n">
-        <v>32954.693359375</v>
+        <v>8059.55859375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9787500121376731</v>
+        <v>0.9778098744504592</v>
       </c>
       <c r="E14" t="n">
-        <v>32953.07315340909</v>
+        <v>8059.093951056985</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.9575892984867096</v>
       </c>
       <c r="C15" t="n">
-        <v>32308.171875</v>
+        <v>7828.19482421875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9761363755572926</v>
+        <v>0.9772190136068007</v>
       </c>
       <c r="E15" t="n">
-        <v>32307.18004261364</v>
+        <v>7827.747673483456</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C16" t="n">
-        <v>31673.2099609375</v>
+        <v>7602.63330078125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.990340915593234</v>
+        <v>0.9834558823529411</v>
       </c>
       <c r="E16" t="n">
-        <v>31672.76136363636</v>
+        <v>7602.204130284927</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9564732015132904</v>
       </c>
       <c r="C17" t="n">
-        <v>31051.080078125</v>
+        <v>7383.121826171875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9905681881037626</v>
+        <v>0.9791228981579051</v>
       </c>
       <c r="E17" t="n">
-        <v>31050.48970170454</v>
+        <v>7382.580049402573</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9614955484867096</v>
       </c>
       <c r="C18" t="n">
-        <v>30441.0546875</v>
+        <v>7168.921142578125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9829545508731495</v>
+        <v>0.9875919117647058</v>
       </c>
       <c r="E18" t="n">
-        <v>30440.07475142046</v>
+        <v>7168.511374080882</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.953125</v>
       </c>
       <c r="C19" t="n">
-        <v>29841.2998046875</v>
+        <v>6960.6689453125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9920454621315002</v>
+        <v>0.984243697979871</v>
       </c>
       <c r="E19" t="n">
-        <v>29840.60617897727</v>
+        <v>6960.135971966912</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.953125</v>
       </c>
       <c r="C20" t="n">
-        <v>29253.39453125</v>
+        <v>6757.53125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9919905452167287</v>
       </c>
       <c r="E20" t="n">
-        <v>29252.49502840909</v>
+        <v>6757.08455882353</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9659598171710968</v>
       </c>
       <c r="C21" t="n">
-        <v>28676.7978515625</v>
+        <v>6559.88916015625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9881818294525146</v>
+        <v>0.9943539920975181</v>
       </c>
       <c r="E21" t="n">
-        <v>28675.65926846591</v>
+        <v>6559.498563878677</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9481026828289032</v>
       </c>
       <c r="C22" t="n">
-        <v>28110.150390625</v>
+        <v>6367.59716796875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9918181896209717</v>
+        <v>0.9931066176470589</v>
       </c>
       <c r="E22" t="n">
-        <v>28109.49911221591</v>
+        <v>6367.147518382353</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.95703125</v>
       </c>
       <c r="C23" t="n">
-        <v>27554.970703125</v>
+        <v>6180.27099609375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9925000071525574</v>
+        <v>0.9883797273916357</v>
       </c>
       <c r="E23" t="n">
-        <v>27553.94318181818</v>
+        <v>6179.867790670956</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9614955484867096</v>
       </c>
       <c r="C24" t="n">
-        <v>27009.8916015625</v>
+        <v>5997.832763671875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.9921875</v>
       </c>
       <c r="E24" t="n">
-        <v>27008.75727982954</v>
+        <v>5997.52254710478</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="C25" t="n">
-        <v>26474.9306640625</v>
+        <v>5820.5263671875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9829306707662695</v>
       </c>
       <c r="E25" t="n">
-        <v>26473.94992897727</v>
+        <v>5820.125201056985</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="C26" t="n">
-        <v>25950.2412109375</v>
+        <v>5647.716064453125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9897727370262146</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E26" t="n">
-        <v>25949.31267755682</v>
+        <v>5647.386603860294</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9659598171710968</v>
       </c>
       <c r="C27" t="n">
-        <v>25435.5107421875</v>
+        <v>5479.717529296875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9921218472368577</v>
       </c>
       <c r="E27" t="n">
-        <v>25434.37535511364</v>
+        <v>5479.389878216912</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9614955484867096</v>
       </c>
       <c r="C28" t="n">
-        <v>24930.291015625</v>
+        <v>5316.199951171875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9906118687461404</v>
       </c>
       <c r="E28" t="n">
-        <v>24929.16015625</v>
+        <v>5315.928165211397</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9654017984867096</v>
       </c>
       <c r="C29" t="n">
-        <v>24434.2294921875</v>
+        <v>5157.219482421875</v>
       </c>
       <c r="D29" t="n">
-        <v>0.991931823166934</v>
+        <v>0.9903492647058824</v>
       </c>
       <c r="E29" t="n">
-        <v>24433.54598721591</v>
+        <v>5156.907427619485</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9698660671710968</v>
       </c>
       <c r="C30" t="n">
-        <v>23947.734375</v>
+        <v>5002.527099609375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9961363673210144</v>
+        <v>0.9919905452167287</v>
       </c>
       <c r="E30" t="n">
-        <v>23947.21431107954</v>
+        <v>5002.207691865809</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9704241156578064</v>
       </c>
       <c r="C31" t="n">
-        <v>23470.7236328125</v>
+        <v>4852.004150390625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9971769942956812</v>
       </c>
       <c r="E31" t="n">
-        <v>23470.06693892046</v>
+        <v>4851.697524126838</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9743303656578064</v>
       </c>
       <c r="C32" t="n">
-        <v>23002.7958984375</v>
+        <v>4705.562744140625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E32" t="n">
-        <v>23001.97780539773</v>
+        <v>4705.326545266544</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9743303656578064</v>
       </c>
       <c r="C33" t="n">
-        <v>22543.0673828125</v>
+        <v>4563.137451171875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E33" t="n">
-        <v>22542.73916903409</v>
+        <v>4562.989947150735</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9793526828289032</v>
       </c>
       <c r="C34" t="n">
-        <v>22092.6025390625</v>
+        <v>4424.685791015625</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9963235294117647</v>
       </c>
       <c r="E34" t="n">
-        <v>22092.17418323864</v>
+        <v>4424.540010340073</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9748883843421936</v>
       </c>
       <c r="C35" t="n">
-        <v>21650.6787109375</v>
+        <v>4290.102783203125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E35" t="n">
-        <v>21650.18093039773</v>
+        <v>4289.927504595588</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9782366156578064</v>
       </c>
       <c r="C36" t="n">
-        <v>21216.919921875</v>
+        <v>4159.245361328125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E36" t="n">
-        <v>21216.517578125</v>
+        <v>4159.021943933823</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9800000190734863</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C37" t="n">
-        <v>20791.5380859375</v>
+        <v>4031.899169921875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9989772709933195</v>
+        <v>0.9940257352941176</v>
       </c>
       <c r="E37" t="n">
-        <v>20791.06427556818</v>
+        <v>4031.746179917279</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9659598171710968</v>
       </c>
       <c r="C38" t="n">
-        <v>20374.2451171875</v>
+        <v>3908.15966796875</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9931066176470589</v>
       </c>
       <c r="E38" t="n">
-        <v>20373.68536931818</v>
+        <v>3908.021168428309</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9704241156578064</v>
       </c>
       <c r="C39" t="n">
-        <v>19964.6259765625</v>
+        <v>3787.896118164062</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9929753156269298</v>
       </c>
       <c r="E39" t="n">
-        <v>19964.22141335227</v>
+        <v>3787.735926011029</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9800000190734863</v>
+        <v>0.9704241156578064</v>
       </c>
       <c r="C40" t="n">
-        <v>19562.9482421875</v>
+        <v>3670.980712890625</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E40" t="n">
-        <v>19562.49591619318</v>
+        <v>3670.81205480239</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9782366156578064</v>
       </c>
       <c r="C41" t="n">
-        <v>19168.7314453125</v>
+        <v>3557.274291992188</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9972426470588235</v>
       </c>
       <c r="E41" t="n">
-        <v>19168.361328125</v>
+        <v>3557.123133042279</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9782366156578064</v>
       </c>
       <c r="C42" t="n">
-        <v>18782.1396484375</v>
+        <v>3446.786254882812</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9972426470588235</v>
       </c>
       <c r="E42" t="n">
-        <v>18781.73970170454</v>
+        <v>3446.650376263787</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9704241156578064</v>
       </c>
       <c r="C43" t="n">
-        <v>18402.7763671875</v>
+        <v>3339.451416015625</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E43" t="n">
-        <v>18402.43323863636</v>
+        <v>3339.322294347427</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9900000095367432</v>
+        <v>0.9704241156578064</v>
       </c>
       <c r="C44" t="n">
-        <v>18030.4287109375</v>
+        <v>3235.106567382812</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E44" t="n">
-        <v>18030.32439630682</v>
+        <v>3234.989200367647</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9743303656578064</v>
       </c>
       <c r="C45" t="n">
-        <v>17665.556640625</v>
+        <v>3133.73828125</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9935661764705882</v>
       </c>
       <c r="E45" t="n">
-        <v>17665.306640625</v>
+        <v>3133.617560891544</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9787946343421936</v>
       </c>
       <c r="C46" t="n">
-        <v>17307.3955078125</v>
+        <v>3035.2109375</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9935661764705882</v>
       </c>
       <c r="E46" t="n">
-        <v>17307.19868607954</v>
+        <v>3035.116368910846</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9748883843421936</v>
       </c>
       <c r="C47" t="n">
-        <v>16956.1376953125</v>
+        <v>2939.514892578125</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9940257352941176</v>
       </c>
       <c r="E47" t="n">
-        <v>16955.88547585227</v>
+        <v>2939.42919921875</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9800000190734863</v>
+        <v>0.9704241156578064</v>
       </c>
       <c r="C48" t="n">
-        <v>16611.6259765625</v>
+        <v>2846.578002929688</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9912027295897988</v>
       </c>
       <c r="E48" t="n">
-        <v>16611.29243607954</v>
+        <v>2846.468893612132</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9748883843421936</v>
       </c>
       <c r="C49" t="n">
-        <v>16273.97705078125</v>
+        <v>2756.246704101562</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9912500056353483</v>
+        <v>0.9967174354721519</v>
       </c>
       <c r="E49" t="n">
-        <v>16273.27397017045</v>
+        <v>2756.13618738511</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9900000095367432</v>
+        <v>0.9748883843421936</v>
       </c>
       <c r="C50" t="n">
-        <v>15941.80908203125</v>
+        <v>2668.569091796875</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E50" t="n">
-        <v>15941.65571732955</v>
+        <v>2668.430893841912</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,828 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9743303656578064</v>
       </c>
       <c r="C51" t="n">
-        <v>15616.65185546875</v>
+        <v>2583.3271484375</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9972426470588235</v>
       </c>
       <c r="E51" t="n">
-        <v>15616.36532315341</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15297.44384765625</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15297.29243607955</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="C53" t="n">
-        <v>14984.38916015625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E53" t="n">
-        <v>14984.26349431818</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14677.5087890625</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14677.22132457386</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9925000071525574</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14376.16748046875</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14376.02796519886</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14080.72216796875</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14080.59028764205</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13791.1259765625</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13790.85182883523</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9825000166893005</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13506.8330078125</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13506.62615411932</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13227.98828125</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13227.83673650568</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C60" t="n">
-        <v>12954.66259765625</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E60" t="n">
-        <v>12954.40962357955</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12686.44384765625</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9956818222999573</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12686.20960582386</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12423.45654296875</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9931818246841431</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12423.15225497159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12165.2880859375</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12165.13023792614</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11912.3291015625</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11912.09881036932</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9825000166893005</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11664.0888671875</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11663.94371448864</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11420.76611328125</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11420.5771484375</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11182.005859375</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11181.87544389205</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10947.9072265625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10947.7978515625</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10718.39697265625</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9965909123420715</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10718.25594815341</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10493.30517578125</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10493.14222301136</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10272.5234375</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10272.39213423295</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9925000071525574</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10055.98193359375</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10055.92231889205</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9843.90478515625</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9917045506564054</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9843.693359375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9925000071525574</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9635.5703125</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9635.519708806818</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9431.56787109375</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9431.419477982954</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9231.3486328125</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9984090924263</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9231.295720880682</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9035.2236328125</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9950000047683716</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9035.09561434659</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8842.77880859375</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8842.696821732954</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8654.27197265625</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8654.092950994318</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8469.23828125</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8469.167613636364</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8288.00048828125</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8287.869762073864</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9935175181355147</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3870967741935484</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9935175181355147</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9032258064516129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.009569377990430622</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9935175181355147</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9032258064516129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.009569377990430622</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9935175181355147</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9354838709677419</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.01913875598086124</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9935175181355147</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9354838709677419</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01913875598086124</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9935175181355147</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.967741935483871</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.1722488038277512</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9935175181355147</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.967741935483871</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.1722488038277512</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9935175181355147</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9935175181355147</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9809384164222874</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9809384164222874</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8755980861244019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9809384164222874</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8851674641148325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9809384164222874</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8899521531100478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9809384164222874</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9043062200956937</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9809384164222874</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9809384164222874</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9186602870813397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9809384164222874</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9808612440191388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9809384164222874</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9808612440191388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9809384164222874</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9904306220095693</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.09677419354838709</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9809384164222874</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9904306220095693</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.09677419354838709</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9809384164222874</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9809384164222874</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
+        <v>2583.212230009191</v>
       </c>
     </row>
   </sheetData>
